--- a/src/esp/PCB/Pinout controller.xlsx
+++ b/src/esp/PCB/Pinout controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d7fedfc28668f9a/Documents/GitHub/IoT-Data-Collection/src/esp/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D9F31F-3BFA-486F-9C30-50244C88F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{19D9F31F-3BFA-486F-9C30-50244C88F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A3621F-B034-46BE-8AE8-DA6FEB9D288C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22488C93-903C-47F2-828F-85F1A8055F92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ATMEGE</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Pin RX lora</t>
   </si>
   <si>
-    <t>Input terminal</t>
-  </si>
-  <si>
     <t>Output 1</t>
   </si>
   <si>
@@ -125,19 +122,25 @@
     <t>Output 3</t>
   </si>
   <si>
-    <t>Input terminal 1</t>
-  </si>
-  <si>
-    <t>Input terminal 2</t>
-  </si>
-  <si>
-    <t>Input terminal 3</t>
-  </si>
-  <si>
     <t>24v</t>
   </si>
   <si>
     <t>5v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input analog terminal </t>
+  </si>
+  <si>
+    <t>Input digital terminal 1</t>
+  </si>
+  <si>
+    <t>Input digital terminal 2</t>
+  </si>
+  <si>
+    <t>Input digital terminal 3</t>
+  </si>
+  <si>
+    <t>RE_DE 485</t>
   </si>
 </sst>
 </file>
@@ -176,10 +179,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,116 +501,119 @@
   <dimension ref="L21:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:M42"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2" t="s">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="2" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2" t="s">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2" t="s">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2" t="s">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2" t="s">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="2" t="s">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="2" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" t="s">
-        <v>30</v>
-      </c>
       <c r="P32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="2" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O33" t="s">
@@ -615,32 +621,32 @@
       </c>
     </row>
     <row r="34" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="2" t="s">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="2" t="s">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="2" t="s">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O36" t="s">
@@ -648,9 +654,9 @@
       </c>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="2" t="s">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O37" t="s">
@@ -658,43 +664,43 @@
       </c>
     </row>
     <row r="38" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="2" t="s">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="40" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="2" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="2" t="s">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="2" t="s">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
